--- a/Accounts-Schedules/NH weekly commitement list(2).xlsx
+++ b/Accounts-Schedules/NH weekly commitement list(2).xlsx
@@ -7831,7 +7831,7 @@
   <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A106" sqref="A3:B106"/>
+      <selection activeCell="A3" sqref="A3:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -7840,7 +7840,9 @@
     <col min="2" max="2" width="25.1818181818182" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.0909090909091" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.4545454545455" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="12" width="10" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7272727272727" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="16" width="8.45454545454546" style="1" customWidth="1"/>
     <col min="17" max="18" width="10" style="1" customWidth="1"/>
     <col min="19" max="16384" width="8.72727272727273" style="1"/>

--- a/Accounts-Schedules/NH weekly commitement list(2).xlsx
+++ b/Accounts-Schedules/NH weekly commitement list(2).xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="533">
   <si>
     <t>الاثنين 30 الساعة 11 ص الي 8 م</t>
   </si>
@@ -42268,10 +42268,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R153"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A153" sqref="A3:B153"/>
+      <selection activeCell="A124" sqref="A3:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -44042,13 +44042,13 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="1:18">
       <c r="A35" s="7">
-        <v>10340037</v>
+        <v>10339930</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1222717497</v>
+        <v>315</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>89</v>
@@ -44094,13 +44094,13 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:18">
       <c r="A36" s="7">
-        <v>10339952</v>
+        <v>10339927</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C36" s="7">
-        <v>1153248409</v>
+        <v>1000511380</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>89</v>
@@ -44146,13 +44146,13 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:18">
       <c r="A37" s="7">
-        <v>10339933</v>
+        <v>10340097</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C37" s="7">
-        <v>1154188662</v>
+        <v>1003545004</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>89</v>
@@ -44198,13 +44198,13 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:18">
       <c r="A38" s="7">
-        <v>10340038</v>
+        <v>10340035</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="C38" s="7">
-        <v>1093376062</v>
+        <v>1067130712</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>89</v>
@@ -44250,13 +44250,13 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:18">
       <c r="A39" s="7">
-        <v>10339930</v>
+        <v>10340032</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1276419181</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>89</v>
@@ -44302,13 +44302,13 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:18">
       <c r="A40" s="7">
-        <v>10340061</v>
+        <v>10339929</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C40" s="7">
-        <v>1090653293</v>
+        <v>1094992783</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>89</v>
@@ -44354,13 +44354,13 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:18">
       <c r="A41" s="7">
-        <v>10339927</v>
+        <v>10340064</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C41" s="7">
-        <v>1000511380</v>
+        <v>1101650993</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>89</v>
@@ -44406,13 +44406,13 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:18">
       <c r="A42" s="7">
-        <v>10339956</v>
+        <v>10339767</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1094685376</v>
+        <v>340</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>89</v>
@@ -44458,13 +44458,13 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="1:18">
       <c r="A43" s="7">
-        <v>10339936</v>
+        <v>10339433</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C43" s="7">
-        <v>1155027161</v>
+        <v>1065039320</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>89</v>
@@ -44488,10 +44488,10 @@
         <v>0.791666666666667</v>
       </c>
       <c r="K43" s="9">
-        <v>0.416666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="L43" s="9">
-        <v>0.791666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>90</v>
@@ -44502,21 +44502,21 @@
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="9">
-        <v>0.416666666666667</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="R43" s="9">
-        <v>0.791666666666667</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:18">
       <c r="A44" s="7">
-        <v>10339931</v>
+        <v>10340563</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>323</v>
+        <v>371</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1001767650</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>89</v>
@@ -44562,13 +44562,13 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:18">
       <c r="A45" s="7">
-        <v>10340100</v>
+        <v>10340726</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>89</v>
@@ -44614,13 +44614,13 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="1:18">
       <c r="A46" s="7">
-        <v>10340097</v>
+        <v>10340584</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1003545004</v>
+        <v>375</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>89</v>
@@ -44666,13 +44666,13 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="1:18">
       <c r="A47" s="7">
-        <v>10340059</v>
+        <v>10340419</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="C47" s="7">
-        <v>1031273085</v>
+        <v>1121276600</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>89</v>
@@ -44718,13 +44718,13 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:18">
       <c r="A48" s="7">
-        <v>10340041</v>
+        <v>10341301</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="C48" s="7">
-        <v>1503620076</v>
+        <v>1152662567</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>89</v>
@@ -44770,13 +44770,13 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:18">
       <c r="A49" s="7">
-        <v>10340040</v>
+        <v>10341208</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="C49" s="7">
-        <v>1129608136</v>
+        <v>1098923529</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>89</v>
@@ -44822,13 +44822,13 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:18">
       <c r="A50" s="7">
-        <v>10340033</v>
+        <v>10341177</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="C50" s="7">
-        <v>1147610172</v>
+        <v>1129684802</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>89</v>
@@ -44874,13 +44874,13 @@
     </row>
     <row r="51" s="1" customFormat="1" spans="1:18">
       <c r="A51" s="7">
-        <v>10340035</v>
+        <v>10341212</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="C51" s="7">
-        <v>1067130712</v>
+        <v>1149238079</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>89</v>
@@ -44926,13 +44926,13 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="1:18">
       <c r="A52" s="7">
-        <v>10340032</v>
+        <v>10341169</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="C52" s="7">
-        <v>1276419181</v>
+        <v>1275556115</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>89</v>
@@ -44978,13 +44978,13 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:18">
       <c r="A53" s="7">
-        <v>10339929</v>
+        <v>10341206</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="C53" s="7">
-        <v>1094992783</v>
+        <v>1207447966</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>89</v>
@@ -45030,13 +45030,13 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="1:18">
       <c r="A54" s="7">
-        <v>10340081</v>
+        <v>10341179</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="C54" s="7">
-        <v>1100941482</v>
+        <v>1117986332</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>89</v>
@@ -45082,13 +45082,13 @@
     </row>
     <row r="55" s="1" customFormat="1" spans="1:18">
       <c r="A55" s="7">
-        <v>10340036</v>
+        <v>10341221</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="C55" s="7">
-        <v>1148102330</v>
+        <v>1515658710</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>89</v>
@@ -45134,13 +45134,13 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="1:18">
       <c r="A56" s="7">
-        <v>10340064</v>
+        <v>10341153</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="C56" s="7">
-        <v>1101650993</v>
+        <v>1140727185</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>89</v>
@@ -45186,13 +45186,13 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="1:18">
       <c r="A57" s="7">
-        <v>10339767</v>
+        <v>10341217</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>341</v>
+        <v>397</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1558817731</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>89</v>
@@ -45238,13 +45238,13 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="1:18">
       <c r="A58" s="7">
-        <v>10339433</v>
+        <v>10341227</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="C58" s="7">
-        <v>1065039320</v>
+        <v>1093918072</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>89</v>
@@ -45290,13 +45290,13 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="1:18">
       <c r="A59" s="7">
-        <v>10339919</v>
+        <v>10341300</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="C59" s="7">
-        <v>1201035557</v>
+        <v>1062921908</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>89</v>
@@ -45342,13 +45342,13 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="1:18">
       <c r="A60" s="7">
-        <v>10340583</v>
+        <v>10341162</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="C60" s="7">
-        <v>1016023469</v>
+        <v>1277574476</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>89</v>
@@ -45394,13 +45394,13 @@
     </row>
     <row r="61" s="1" customFormat="1" spans="1:18">
       <c r="A61" s="7">
-        <v>10340645</v>
+        <v>10341215</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="C61" s="7">
-        <v>1285452195</v>
+        <v>1149048868</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>89</v>
@@ -45446,13 +45446,13 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="1:18">
       <c r="A62" s="7">
-        <v>10340648</v>
+        <v>10341155</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="C62" s="7">
-        <v>1006479307</v>
+        <v>1285324029</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>89</v>
@@ -45498,13 +45498,13 @@
     </row>
     <row r="63" s="1" customFormat="1" spans="1:18">
       <c r="A63" s="7">
-        <v>10340656</v>
+        <v>10341787</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>357</v>
+        <v>410</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1029176161</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>89</v>
@@ -45550,13 +45550,13 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="1:18">
       <c r="A64" s="7">
-        <v>10340639</v>
+        <v>10341807</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>359</v>
+        <v>442</v>
       </c>
       <c r="C64" s="7">
-        <v>1273512059</v>
+        <v>1020090701</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>89</v>
@@ -45602,13 +45602,13 @@
     </row>
     <row r="65" s="1" customFormat="1" spans="1:18">
       <c r="A65" s="7">
-        <v>10340585</v>
+        <v>10341878</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="C65" s="7">
-        <v>1204983698</v>
+        <v>1098376442</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>89</v>
@@ -45654,13 +45654,13 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="1:18">
       <c r="A66" s="7">
-        <v>10340644</v>
+        <v>10341799</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="C66" s="7">
-        <v>1024199162</v>
+        <v>1000534263</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>89</v>
@@ -45706,13 +45706,13 @@
     </row>
     <row r="67" s="1" customFormat="1" spans="1:18">
       <c r="A67" s="7">
-        <v>10340665</v>
+        <v>10341836</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1063538482</v>
+        <v>443</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>89</v>
@@ -45758,13 +45758,13 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="1:18">
       <c r="A68" s="7">
-        <v>10340564</v>
+        <v>10341801</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>365</v>
+        <v>416</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1021742075</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>89</v>
@@ -45810,13 +45810,13 @@
     </row>
     <row r="69" s="1" customFormat="1" spans="1:18">
       <c r="A69" s="7">
-        <v>10340566</v>
+        <v>10341782</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>367</v>
+        <v>417</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1505369674</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>89</v>
@@ -45862,13 +45862,13 @@
     </row>
     <row r="70" s="1" customFormat="1" spans="1:18">
       <c r="A70" s="7">
-        <v>10340571</v>
+        <v>10341800</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>369</v>
+        <v>418</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1150727151</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>89</v>
@@ -45914,13 +45914,13 @@
     </row>
     <row r="71" s="1" customFormat="1" spans="1:18">
       <c r="A71" s="7">
-        <v>10340643</v>
+        <v>10341802</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="C71" s="7">
-        <v>1064510557</v>
+        <v>1116092120</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>89</v>
@@ -45966,13 +45966,13 @@
     </row>
     <row r="72" s="1" customFormat="1" spans="1:18">
       <c r="A72" s="7">
-        <v>10340563</v>
+        <v>10341794</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="C72" s="7">
-        <v>1001767650</v>
+        <v>1121237153</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>89</v>
@@ -46018,13 +46018,13 @@
     </row>
     <row r="73" s="1" customFormat="1" spans="1:18">
       <c r="A73" s="7">
-        <v>10340726</v>
+        <v>10341784</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>374</v>
+        <v>421</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1013884014</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>89</v>
@@ -46070,13 +46070,13 @@
     </row>
     <row r="74" s="1" customFormat="1" spans="1:18">
       <c r="A74" s="7">
-        <v>10340584</v>
+        <v>10341798</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>376</v>
+        <v>422</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1152255932</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>89</v>
@@ -46122,13 +46122,13 @@
     </row>
     <row r="75" s="1" customFormat="1" spans="1:18">
       <c r="A75" s="7">
-        <v>10340558</v>
+        <v>10341886</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="C75" s="7">
-        <v>1124009608</v>
+        <v>423</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>89</v>
@@ -46174,13 +46174,13 @@
     </row>
     <row r="76" s="1" customFormat="1" spans="1:18">
       <c r="A76" s="7">
-        <v>10340419</v>
+        <v>10341880</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="C76" s="7">
-        <v>1121276600</v>
+        <v>1152061157</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>89</v>
@@ -46226,13 +46226,13 @@
     </row>
     <row r="77" s="1" customFormat="1" spans="1:18">
       <c r="A77" s="7">
-        <v>10341301</v>
+        <v>10341833</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C77" s="7">
-        <v>1152662567</v>
+        <v>444</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>427</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>89</v>
@@ -46278,13 +46278,13 @@
     </row>
     <row r="78" s="1" customFormat="1" spans="1:18">
       <c r="A78" s="7">
-        <v>10341208</v>
+        <v>10341837</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="C78" s="7">
-        <v>1098923529</v>
+        <v>1271920902</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>89</v>
@@ -46330,13 +46330,13 @@
     </row>
     <row r="79" s="1" customFormat="1" spans="1:18">
       <c r="A79" s="7">
-        <v>10341177</v>
+        <v>10341883</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C79" s="7">
-        <v>1129684802</v>
+        <v>429</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>89</v>
@@ -46382,13 +46382,13 @@
     </row>
     <row r="80" s="1" customFormat="1" spans="1:18">
       <c r="A80" s="7">
-        <v>10341212</v>
+        <v>10341791</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="C80" s="7">
-        <v>1149238079</v>
+        <v>1155600468</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>89</v>
@@ -46434,13 +46434,13 @@
     </row>
     <row r="81" s="1" customFormat="1" spans="1:18">
       <c r="A81" s="7">
-        <v>10341169</v>
+        <v>10341839</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C81" s="7">
-        <v>1275556115</v>
+        <v>432</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>89</v>
@@ -46486,13 +46486,13 @@
     </row>
     <row r="82" s="1" customFormat="1" spans="1:18">
       <c r="A82" s="7">
-        <v>10341206</v>
+        <v>10341792</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="C82" s="7">
-        <v>1207447966</v>
+        <v>1104749534</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>89</v>
@@ -46538,13 +46538,13 @@
     </row>
     <row r="83" s="1" customFormat="1" spans="1:18">
       <c r="A83" s="7">
-        <v>10341179</v>
+        <v>10342522</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="C83" s="7">
-        <v>1117986332</v>
+        <v>1125261030</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>89</v>
@@ -46590,13 +46590,13 @@
     </row>
     <row r="84" s="1" customFormat="1" spans="1:18">
       <c r="A84" s="7">
-        <v>10341221</v>
+        <v>10342593</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="C84" s="7">
-        <v>1515658710</v>
+        <v>1127251029</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>89</v>
@@ -46642,13 +46642,13 @@
     </row>
     <row r="85" s="1" customFormat="1" spans="1:18">
       <c r="A85" s="7">
-        <v>10341153</v>
+        <v>10341002</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="C85" s="7">
-        <v>1140727185</v>
+        <v>1117299576</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>89</v>
@@ -46694,13 +46694,13 @@
     </row>
     <row r="86" s="1" customFormat="1" spans="1:18">
       <c r="A86" s="7">
-        <v>10341217</v>
+        <v>10342589</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C86" s="7">
-        <v>1558817731</v>
+        <v>448</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>89</v>
@@ -46746,13 +46746,13 @@
     </row>
     <row r="87" s="1" customFormat="1" spans="1:18">
       <c r="A87" s="7">
-        <v>10341227</v>
+        <v>10342535</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="C87" s="7">
-        <v>1093918072</v>
+        <v>1004594906</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>89</v>
@@ -46798,13 +46798,13 @@
     </row>
     <row r="88" s="1" customFormat="1" spans="1:18">
       <c r="A88" s="7">
-        <v>10341300</v>
+        <v>10341879</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="C88" s="7">
-        <v>1062921908</v>
+        <v>1103604661</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>89</v>
@@ -46850,13 +46850,13 @@
     </row>
     <row r="89" s="1" customFormat="1" spans="1:18">
       <c r="A89" s="7">
-        <v>10341162</v>
+        <v>10342602</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="C89" s="7">
-        <v>1277574476</v>
+        <v>1069323958</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>89</v>
@@ -46902,13 +46902,13 @@
     </row>
     <row r="90" s="1" customFormat="1" spans="1:18">
       <c r="A90" s="7">
-        <v>10341215</v>
+        <v>10342586</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="C90" s="7">
-        <v>1149048868</v>
+        <v>1152151913</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>89</v>
@@ -46954,13 +46954,13 @@
     </row>
     <row r="91" s="1" customFormat="1" spans="1:18">
       <c r="A91" s="7">
-        <v>10341155</v>
+        <v>10342538</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="C91" s="7">
-        <v>1285324029</v>
+        <v>1155036605</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>89</v>
@@ -47006,13 +47006,13 @@
     </row>
     <row r="92" s="1" customFormat="1" spans="1:18">
       <c r="A92" s="7">
-        <v>10341787</v>
+        <v>10342600</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="C92" s="7">
-        <v>1029176161</v>
+        <v>1050882233</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>89</v>
@@ -47058,13 +47058,13 @@
     </row>
     <row r="93" s="1" customFormat="1" spans="1:18">
       <c r="A93" s="7">
-        <v>10341807</v>
+        <v>10342540</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="C93" s="7">
-        <v>1020090701</v>
+        <v>1226631133</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>89</v>
@@ -47110,13 +47110,13 @@
     </row>
     <row r="94" s="1" customFormat="1" spans="1:18">
       <c r="A94" s="7">
-        <v>10341878</v>
+        <v>10342591</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="C94" s="7">
-        <v>1098376442</v>
+        <v>1034644557</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>89</v>
@@ -47162,13 +47162,13 @@
     </row>
     <row r="95" s="1" customFormat="1" spans="1:18">
       <c r="A95" s="7">
-        <v>10341799</v>
+        <v>10342601</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C95" s="7">
-        <v>1000534263</v>
+        <v>1205136480</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>89</v>
@@ -47214,13 +47214,13 @@
     </row>
     <row r="96" s="1" customFormat="1" spans="1:18">
       <c r="A96" s="7">
-        <v>10341836</v>
+        <v>10342536</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>415</v>
+        <v>459</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1146683422</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>89</v>
@@ -47266,13 +47266,13 @@
     </row>
     <row r="97" s="1" customFormat="1" spans="1:18">
       <c r="A97" s="7">
-        <v>10341801</v>
+        <v>10342543</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="C97" s="7">
-        <v>1021742075</v>
+        <v>1503017315</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>89</v>
@@ -47318,13 +47318,13 @@
     </row>
     <row r="98" s="1" customFormat="1" spans="1:18">
       <c r="A98" s="7">
-        <v>10341782</v>
+        <v>10342599</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="C98" s="7">
-        <v>1505369674</v>
+        <v>1063707011</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>89</v>
@@ -47370,13 +47370,13 @@
     </row>
     <row r="99" s="1" customFormat="1" spans="1:18">
       <c r="A99" s="7">
-        <v>10341800</v>
+        <v>10342542</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="C99" s="7">
-        <v>1150727151</v>
+        <v>1158346563</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>89</v>
@@ -47422,13 +47422,13 @@
     </row>
     <row r="100" s="1" customFormat="1" spans="1:18">
       <c r="A100" s="7">
-        <v>10341802</v>
+        <v>10342604</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="C100" s="7">
-        <v>1116092120</v>
+        <v>1554313453</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>89</v>
@@ -47474,13 +47474,13 @@
     </row>
     <row r="101" s="1" customFormat="1" spans="1:18">
       <c r="A101" s="7">
-        <v>10341794</v>
+        <v>10342605</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="C101" s="7">
-        <v>1121237153</v>
+        <v>1557058135</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>89</v>
@@ -47526,13 +47526,13 @@
     </row>
     <row r="102" s="1" customFormat="1" spans="1:18">
       <c r="A102" s="7">
-        <v>10341784</v>
+        <v>10342713</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="C102" s="7">
-        <v>1013884014</v>
+        <v>1155948092</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>89</v>
@@ -47578,13 +47578,13 @@
     </row>
     <row r="103" s="1" customFormat="1" spans="1:18">
       <c r="A103" s="7">
-        <v>10341798</v>
+        <v>10342712</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="C103" s="7">
-        <v>1152255932</v>
+        <v>1143159790</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>89</v>
@@ -47630,13 +47630,13 @@
     </row>
     <row r="104" s="1" customFormat="1" spans="1:18">
       <c r="A104" s="7">
-        <v>10341886</v>
+        <v>10342702</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>424</v>
+        <v>467</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1060838031</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>89</v>
@@ -47682,13 +47682,13 @@
     </row>
     <row r="105" s="1" customFormat="1" spans="1:18">
       <c r="A105" s="7">
-        <v>10341880</v>
+        <v>10342700</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C105" s="7">
-        <v>1152061157</v>
+        <v>213</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>89</v>
@@ -47734,13 +47734,13 @@
     </row>
     <row r="106" s="1" customFormat="1" spans="1:18">
       <c r="A106" s="7">
-        <v>10341833</v>
+        <v>10342698</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>427</v>
+        <v>469</v>
+      </c>
+      <c r="C106" s="7">
+        <v>1117338982</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>89</v>
@@ -47785,40 +47785,40 @@
       </c>
     </row>
     <row r="107" s="1" customFormat="1" spans="1:18">
-      <c r="A107" s="7">
-        <v>10341837</v>
+      <c r="A107" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>428</v>
+        <v>509</v>
       </c>
       <c r="C107" s="7">
-        <v>1271920902</v>
+        <v>1121284993</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E107" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F107" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G107" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J107" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K107" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L107" s="9">
+      <c r="E107" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F107" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G107" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H107" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I107" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J107" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K107" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L107" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M107" s="12" t="s">
@@ -47829,48 +47829,48 @@
         <v>90</v>
       </c>
       <c r="P107" s="4"/>
-      <c r="Q107" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R107" s="9">
+      <c r="Q107" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R107" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" spans="1:18">
       <c r="A108" s="7">
-        <v>10341883</v>
+        <v>10343858</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>430</v>
+        <v>510</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1011662562</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E108" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F108" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G108" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H108" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I108" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J108" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K108" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L108" s="9">
+      <c r="E108" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F108" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G108" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H108" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I108" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J108" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K108" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L108" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M108" s="12" t="s">
@@ -47881,48 +47881,48 @@
         <v>90</v>
       </c>
       <c r="P108" s="4"/>
-      <c r="Q108" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R108" s="9">
+      <c r="Q108" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R108" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" spans="1:18">
       <c r="A109" s="7">
-        <v>10341791</v>
+        <v>10343937</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
       <c r="C109" s="7">
-        <v>1155600468</v>
+        <v>1515410373</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E109" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F109" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G109" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H109" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I109" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J109" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K109" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L109" s="9">
+      <c r="E109" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G109" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H109" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I109" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J109" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K109" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L109" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M109" s="12" t="s">
@@ -47933,48 +47933,48 @@
         <v>90</v>
       </c>
       <c r="P109" s="4"/>
-      <c r="Q109" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R109" s="9">
+      <c r="Q109" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R109" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" spans="1:18">
-      <c r="A110" s="7">
-        <v>10341839</v>
+      <c r="A110" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>433</v>
+        <v>513</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1061882345</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E110" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F110" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G110" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H110" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I110" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J110" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K110" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L110" s="9">
+      <c r="E110" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G110" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I110" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J110" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K110" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L110" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M110" s="12" t="s">
@@ -47985,48 +47985,48 @@
         <v>90</v>
       </c>
       <c r="P110" s="4"/>
-      <c r="Q110" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R110" s="9">
+      <c r="Q110" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R110" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" spans="1:18">
-      <c r="A111" s="7">
-        <v>10341792</v>
+      <c r="A111" s="7" t="s">
+        <v>514</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="C111" s="7">
-        <v>1104749534</v>
+        <v>1068128832</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E111" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F111" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G111" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H111" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I111" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J111" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K111" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L111" s="9">
+      <c r="E111" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F111" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G111" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I111" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J111" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K111" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L111" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M111" s="12" t="s">
@@ -48037,48 +48037,48 @@
         <v>90</v>
       </c>
       <c r="P111" s="4"/>
-      <c r="Q111" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R111" s="9">
+      <c r="Q111" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R111" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" spans="1:18">
       <c r="A112" s="7">
-        <v>10342522</v>
+        <v>10343996</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
       <c r="C112" s="7">
-        <v>1125261030</v>
+        <v>1094442317</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E112" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F112" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G112" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H112" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I112" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J112" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K112" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L112" s="9">
+      <c r="E112" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G112" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H112" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I112" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J112" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K112" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L112" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M112" s="12" t="s">
@@ -48089,48 +48089,48 @@
         <v>90</v>
       </c>
       <c r="P112" s="4"/>
-      <c r="Q112" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R112" s="9">
+      <c r="Q112" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R112" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" spans="1:18">
       <c r="A113" s="7">
-        <v>10342593</v>
+        <v>10343862</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
       <c r="C113" s="7">
-        <v>1127251029</v>
+        <v>1004708495</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E113" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F113" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G113" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H113" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I113" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J113" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K113" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L113" s="9">
+      <c r="E113" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F113" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G113" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I113" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J113" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K113" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L113" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M113" s="12" t="s">
@@ -48141,48 +48141,48 @@
         <v>90</v>
       </c>
       <c r="P113" s="4"/>
-      <c r="Q113" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R113" s="9">
+      <c r="Q113" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R113" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:18">
       <c r="A114" s="7">
-        <v>10341002</v>
+        <v>10343924</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="C114" s="7">
-        <v>1117299576</v>
+        <v>1115316268</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E114" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F114" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G114" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H114" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I114" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J114" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K114" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L114" s="9">
+      <c r="E114" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G114" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I114" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J114" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K114" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L114" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M114" s="12" t="s">
@@ -48193,48 +48193,48 @@
         <v>90</v>
       </c>
       <c r="P114" s="4"/>
-      <c r="Q114" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R114" s="9">
+      <c r="Q114" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R114" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" spans="1:18">
-      <c r="A115" s="7">
-        <v>10342589</v>
+      <c r="A115" s="7" t="s">
+        <v>519</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>449</v>
+        <v>520</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1010720003</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E115" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F115" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G115" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H115" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I115" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J115" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K115" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L115" s="9">
+      <c r="E115" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F115" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G115" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H115" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I115" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J115" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K115" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L115" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M115" s="12" t="s">
@@ -48245,48 +48245,48 @@
         <v>90</v>
       </c>
       <c r="P115" s="4"/>
-      <c r="Q115" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R115" s="9">
+      <c r="Q115" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R115" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" spans="1:18">
       <c r="A116" s="7">
-        <v>10342535</v>
+        <v>10343863</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="C116" s="7">
-        <v>1004594906</v>
+        <v>1091530766</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E116" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F116" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G116" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H116" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I116" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J116" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K116" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L116" s="9">
+      <c r="E116" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F116" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G116" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H116" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I116" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J116" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K116" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L116" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M116" s="12" t="s">
@@ -48297,48 +48297,48 @@
         <v>90</v>
       </c>
       <c r="P116" s="4"/>
-      <c r="Q116" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R116" s="9">
+      <c r="Q116" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R116" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" spans="1:18">
       <c r="A117" s="7">
-        <v>10341879</v>
+        <v>10343869</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>451</v>
+        <v>522</v>
       </c>
       <c r="C117" s="7">
-        <v>1103604661</v>
+        <v>1020842747</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E117" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F117" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G117" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H117" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I117" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J117" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K117" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L117" s="9">
+      <c r="E117" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G117" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H117" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I117" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J117" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K117" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L117" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M117" s="12" t="s">
@@ -48349,48 +48349,48 @@
         <v>90</v>
       </c>
       <c r="P117" s="4"/>
-      <c r="Q117" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R117" s="9">
+      <c r="Q117" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R117" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:18">
-      <c r="A118" s="7">
-        <v>10342602</v>
+      <c r="A118" s="7" t="s">
+        <v>523</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>452</v>
+        <v>524</v>
       </c>
       <c r="C118" s="7">
-        <v>1069323958</v>
+        <v>1147687920</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E118" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F118" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G118" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H118" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I118" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J118" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K118" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L118" s="9">
+      <c r="E118" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G118" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H118" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I118" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J118" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K118" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L118" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M118" s="12" t="s">
@@ -48401,48 +48401,48 @@
         <v>90</v>
       </c>
       <c r="P118" s="4"/>
-      <c r="Q118" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R118" s="9">
+      <c r="Q118" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R118" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" spans="1:18">
       <c r="A119" s="7">
-        <v>10342586</v>
+        <v>10343860</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>453</v>
+        <v>525</v>
       </c>
       <c r="C119" s="7">
-        <v>1152151913</v>
+        <v>1129964189</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E119" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F119" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H119" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I119" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J119" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K119" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L119" s="9">
+      <c r="E119" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F119" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G119" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H119" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I119" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J119" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K119" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L119" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M119" s="12" t="s">
@@ -48453,48 +48453,48 @@
         <v>90</v>
       </c>
       <c r="P119" s="4"/>
-      <c r="Q119" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R119" s="9">
+      <c r="Q119" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R119" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" spans="1:18">
-      <c r="A120" s="7">
-        <v>10342538</v>
+      <c r="A120" s="7" t="s">
+        <v>526</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="C120" s="7">
-        <v>1155036605</v>
+        <v>1150504469</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E120" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F120" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G120" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H120" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I120" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J120" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K120" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L120" s="9">
+      <c r="E120" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G120" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H120" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I120" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J120" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K120" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L120" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M120" s="12" t="s">
@@ -48505,48 +48505,48 @@
         <v>90</v>
       </c>
       <c r="P120" s="4"/>
-      <c r="Q120" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R120" s="9">
+      <c r="Q120" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R120" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" spans="1:18">
       <c r="A121" s="7">
-        <v>10342600</v>
+        <v>10343861</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="C121" s="7">
-        <v>1050882233</v>
+        <v>1018861565</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E121" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F121" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G121" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H121" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I121" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J121" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K121" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L121" s="9">
+      <c r="E121" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F121" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G121" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H121" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I121" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J121" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K121" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L121" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M121" s="12" t="s">
@@ -48557,48 +48557,48 @@
         <v>90</v>
       </c>
       <c r="P121" s="4"/>
-      <c r="Q121" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R121" s="9">
+      <c r="Q121" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R121" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" spans="1:18">
-      <c r="A122" s="7">
-        <v>10342540</v>
+      <c r="A122" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="C122" s="7">
-        <v>1226631133</v>
+        <v>1152879982</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E122" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F122" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G122" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H122" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I122" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J122" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K122" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L122" s="9">
+      <c r="E122" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G122" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I122" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J122" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K122" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L122" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M122" s="12" t="s">
@@ -48609,48 +48609,48 @@
         <v>90</v>
       </c>
       <c r="P122" s="4"/>
-      <c r="Q122" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R122" s="9">
+      <c r="Q122" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R122" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" spans="1:18">
       <c r="A123" s="7">
-        <v>10342591</v>
+        <v>10343948</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="C123" s="7">
-        <v>1034644557</v>
+        <v>1158021888</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E123" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F123" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G123" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H123" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I123" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J123" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K123" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L123" s="9">
+      <c r="E123" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F123" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G123" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H123" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I123" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J123" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K123" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L123" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M123" s="12" t="s">
@@ -48661,48 +48661,48 @@
         <v>90</v>
       </c>
       <c r="P123" s="4"/>
-      <c r="Q123" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R123" s="9">
+      <c r="Q123" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R123" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:18">
       <c r="A124" s="7">
-        <v>10342601</v>
+        <v>10343941</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="C124" s="7">
-        <v>1205136480</v>
+        <v>1110620041</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E124" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F124" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G124" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H124" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I124" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J124" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K124" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L124" s="9">
+      <c r="E124" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G124" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="I124" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J124" s="8">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K124" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L124" s="8">
         <v>0.791666666666667</v>
       </c>
       <c r="M124" s="12" t="s">
@@ -48713,1523 +48713,15 @@
         <v>90</v>
       </c>
       <c r="P124" s="4"/>
-      <c r="Q124" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R124" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="125" s="1" customFormat="1" spans="1:18">
-      <c r="A125" s="7">
-        <v>10342536</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C125" s="7">
-        <v>1146683422</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E125" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F125" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G125" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H125" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I125" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J125" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K125" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L125" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M125" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N125" s="4"/>
-      <c r="O125" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R125" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="1" spans="1:18">
-      <c r="A126" s="7">
-        <v>10342543</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C126" s="7">
-        <v>1503017315</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E126" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F126" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G126" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H126" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I126" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J126" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K126" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L126" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M126" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N126" s="4"/>
-      <c r="O126" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R126" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="127" s="1" customFormat="1" spans="1:18">
-      <c r="A127" s="7">
-        <v>10342599</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C127" s="7">
-        <v>1063707011</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E127" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F127" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G127" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H127" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I127" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J127" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K127" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L127" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M127" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N127" s="4"/>
-      <c r="O127" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R127" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="128" s="1" customFormat="1" spans="1:18">
-      <c r="A128" s="7">
-        <v>10342542</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C128" s="7">
-        <v>1158346563</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E128" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F128" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G128" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H128" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I128" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J128" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K128" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L128" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M128" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N128" s="4"/>
-      <c r="O128" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R128" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="1" spans="1:18">
-      <c r="A129" s="7">
-        <v>10342604</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C129" s="7">
-        <v>1554313453</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E129" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F129" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G129" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H129" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I129" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J129" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K129" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L129" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M129" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N129" s="4"/>
-      <c r="O129" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R129" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="130" s="1" customFormat="1" spans="1:18">
-      <c r="A130" s="7">
-        <v>10342605</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C130" s="7">
-        <v>1557058135</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E130" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F130" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G130" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H130" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I130" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J130" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K130" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L130" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M130" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N130" s="4"/>
-      <c r="O130" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R130" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="1" spans="1:18">
-      <c r="A131" s="7">
-        <v>10342713</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="C131" s="7">
-        <v>1155948092</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E131" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F131" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G131" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H131" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I131" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J131" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K131" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L131" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M131" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N131" s="4"/>
-      <c r="O131" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R131" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1" spans="1:18">
-      <c r="A132" s="7">
-        <v>10342712</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C132" s="7">
-        <v>1143159790</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E132" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F132" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G132" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H132" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I132" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J132" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K132" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L132" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M132" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N132" s="4"/>
-      <c r="O132" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R132" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="133" s="1" customFormat="1" spans="1:18">
-      <c r="A133" s="7">
-        <v>10342702</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C133" s="7">
-        <v>1060838031</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E133" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F133" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G133" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H133" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I133" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J133" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K133" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L133" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M133" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N133" s="4"/>
-      <c r="O133" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R133" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="134" s="1" customFormat="1" spans="1:18">
-      <c r="A134" s="7">
-        <v>10342700</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E134" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F134" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G134" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H134" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I134" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J134" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K134" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L134" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M134" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N134" s="4"/>
-      <c r="O134" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R134" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="135" s="1" customFormat="1" spans="1:18">
-      <c r="A135" s="7">
-        <v>10342698</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="C135" s="7">
-        <v>1117338982</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E135" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F135" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G135" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H135" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I135" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J135" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K135" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L135" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M135" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N135" s="4"/>
-      <c r="O135" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="9">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R135" s="9">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="136" s="1" customFormat="1" spans="1:18">
-      <c r="A136" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C136" s="7">
-        <v>1121284993</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E136" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F136" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G136" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H136" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I136" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J136" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K136" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L136" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M136" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N136" s="4"/>
-      <c r="O136" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R136" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="1" spans="1:18">
-      <c r="A137" s="7">
-        <v>10343858</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="C137" s="7">
-        <v>1011662562</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E137" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F137" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G137" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H137" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I137" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J137" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K137" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L137" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M137" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N137" s="4"/>
-      <c r="O137" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R137" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" spans="1:18">
-      <c r="A138" s="7">
-        <v>10343937</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C138" s="7">
-        <v>1515410373</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E138" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F138" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G138" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H138" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I138" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J138" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K138" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L138" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M138" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N138" s="4"/>
-      <c r="O138" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R138" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="139" s="1" customFormat="1" spans="1:18">
-      <c r="A139" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="C139" s="7">
-        <v>1061882345</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E139" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F139" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G139" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H139" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I139" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J139" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K139" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L139" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M139" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N139" s="4"/>
-      <c r="O139" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R139" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="140" s="1" customFormat="1" spans="1:18">
-      <c r="A140" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C140" s="7">
-        <v>1068128832</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E140" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F140" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G140" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H140" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I140" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J140" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K140" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L140" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M140" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N140" s="4"/>
-      <c r="O140" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R140" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" spans="1:18">
-      <c r="A141" s="7">
-        <v>10343996</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C141" s="7">
-        <v>1094442317</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E141" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F141" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G141" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H141" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I141" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J141" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K141" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L141" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M141" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N141" s="4"/>
-      <c r="O141" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R141" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="142" s="1" customFormat="1" spans="1:18">
-      <c r="A142" s="7">
-        <v>10343862</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C142" s="7">
-        <v>1004708495</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E142" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F142" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G142" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H142" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I142" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J142" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K142" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L142" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M142" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N142" s="4"/>
-      <c r="O142" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R142" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="1" spans="1:18">
-      <c r="A143" s="7">
-        <v>10343924</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="C143" s="7">
-        <v>1115316268</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E143" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F143" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G143" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H143" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I143" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J143" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K143" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L143" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M143" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N143" s="4"/>
-      <c r="O143" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R143" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" spans="1:18">
-      <c r="A144" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="C144" s="7">
-        <v>1010720003</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E144" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F144" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G144" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H144" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I144" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J144" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K144" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L144" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M144" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N144" s="4"/>
-      <c r="O144" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R144" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="1" spans="1:18">
-      <c r="A145" s="7">
-        <v>10343863</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C145" s="7">
-        <v>1091530766</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E145" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F145" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G145" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H145" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I145" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J145" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K145" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L145" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M145" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N145" s="4"/>
-      <c r="O145" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R145" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="146" s="1" customFormat="1" spans="1:18">
-      <c r="A146" s="7">
-        <v>10343869</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C146" s="7">
-        <v>1020842747</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E146" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F146" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G146" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H146" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I146" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J146" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K146" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L146" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M146" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N146" s="4"/>
-      <c r="O146" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R146" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="147" s="1" customFormat="1" spans="1:18">
-      <c r="A147" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="C147" s="7">
-        <v>1147687920</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E147" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F147" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G147" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H147" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I147" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J147" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K147" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L147" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M147" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N147" s="4"/>
-      <c r="O147" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R147" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="148" s="1" customFormat="1" spans="1:18">
-      <c r="A148" s="7">
-        <v>10343860</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="C148" s="7">
-        <v>1129964189</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E148" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F148" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G148" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H148" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I148" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J148" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K148" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L148" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M148" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N148" s="4"/>
-      <c r="O148" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R148" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" spans="1:18">
-      <c r="A149" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C149" s="7">
-        <v>1150504469</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E149" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F149" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G149" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H149" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I149" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J149" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K149" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L149" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M149" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N149" s="4"/>
-      <c r="O149" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R149" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="150" s="1" customFormat="1" spans="1:18">
-      <c r="A150" s="7">
-        <v>10343861</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="C150" s="7">
-        <v>1018861565</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E150" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F150" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G150" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H150" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I150" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J150" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K150" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L150" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M150" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N150" s="4"/>
-      <c r="O150" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R150" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="151" s="1" customFormat="1" spans="1:18">
-      <c r="A151" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C151" s="7">
-        <v>1152879982</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E151" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F151" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G151" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H151" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I151" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J151" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K151" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L151" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M151" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N151" s="4"/>
-      <c r="O151" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P151" s="4"/>
-      <c r="Q151" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R151" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="1" spans="1:18">
-      <c r="A152" s="7">
-        <v>10343948</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C152" s="7">
-        <v>1158021888</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E152" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F152" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G152" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H152" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I152" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J152" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K152" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L152" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M152" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N152" s="4"/>
-      <c r="O152" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P152" s="4"/>
-      <c r="Q152" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R152" s="8">
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="1" spans="1:18">
-      <c r="A153" s="7">
-        <v>10343941</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="C153" s="7">
-        <v>1110620041</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E153" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F153" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G153" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H153" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="I153" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J153" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="K153" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="L153" s="8">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="M153" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N153" s="4"/>
-      <c r="O153" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="8">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="R153" s="8">
+      <c r="Q124" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="R124" s="8">
         <v>0.791666666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="313">
+  <mergeCells count="255">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -50481,69 +48973,14 @@
     <mergeCell ref="O123:P123"/>
     <mergeCell ref="M124:N124"/>
     <mergeCell ref="O124:P124"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P125"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="O127:P127"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="O129:P129"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="O130:P130"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="O134:P134"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="O141:P141"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="O142:P142"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="O143:P143"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="O144:P144"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="O146:P146"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="O147:P147"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="O148:P148"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="O150:P150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="O153:P153"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:A126 A140:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/NH weekly commitement list(2).xlsx
+++ b/Accounts-Schedules/NH weekly commitement list(2).xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6364" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6358" uniqueCount="607">
   <si>
     <t>الاثنين 30 الساعة 11 ص الي 8 م</t>
   </si>
@@ -1813,13 +1813,13 @@
     <t>1507944711 WP / 1553516466</t>
   </si>
   <si>
+    <t>Hassan Alsayed</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
     <t>Mohamed Nabil</t>
-  </si>
-  <si>
-    <t>Hassan Alsayed</t>
   </si>
   <si>
     <t>Hiba Ali</t>
@@ -1859,15 +1859,6 @@
   </si>
   <si>
     <t>مسجد السلام</t>
-  </si>
-  <si>
-    <t>حسن السيد</t>
-  </si>
-  <si>
-    <t>و - مدينتي</t>
-  </si>
-  <si>
-    <t>بوابة 1</t>
   </si>
   <si>
     <t>عبد الرحمن محمود</t>
@@ -49225,10 +49216,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A121" sqref="A3:B121"/>
+      <selection activeCell="A122" sqref="A3:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -55506,67 +55497,67 @@
       </c>
       <c r="R121" s="12"/>
     </row>
-    <row r="123" s="1" customFormat="1" ht="12" spans="1:18">
-      <c r="A123" s="6" t="s">
+    <row r="122" s="1" customFormat="1" ht="12" spans="1:18">
+      <c r="A122" s="6">
+        <v>10345744</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C123" s="6">
-        <v>1208509996</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E123" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F123" s="7">
+      <c r="C122" s="6">
+        <v>1026876551</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F122" s="7">
         <v>0.166666666666667</v>
       </c>
-      <c r="G123" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H123" s="7">
+      <c r="G122" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H122" s="7">
         <v>0.166666666666667</v>
       </c>
-      <c r="I123" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="J123" s="7">
+      <c r="I122" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="J122" s="7">
         <v>0.166666666666667</v>
       </c>
-      <c r="K123" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="L123" s="7">
+      <c r="K122" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="L122" s="7">
         <v>0.166666666666667</v>
       </c>
-      <c r="M123" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="N123" s="7">
+      <c r="M122" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="N122" s="7">
         <v>0.125</v>
       </c>
-      <c r="O123" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="P123" s="12"/>
-      <c r="Q123" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="R123" s="12"/>
+      <c r="O122" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="R122" s="12"/>
     </row>
     <row r="124" s="1" customFormat="1" ht="12" spans="1:18">
       <c r="A124" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>591</v>
       </c>
       <c r="C124" s="6">
-        <v>1026876551</v>
+        <v>1208509996</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>89</v>
@@ -55612,7 +55603,7 @@
     </row>
     <row r="125" s="1" customFormat="1" ht="12" spans="1:18">
       <c r="A125" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>592</v>
@@ -55664,7 +55655,7 @@
     </row>
     <row r="126" s="1" customFormat="1" ht="12" spans="1:18">
       <c r="A126" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>593</v>
@@ -55716,7 +55707,7 @@
     </row>
     <row r="127" s="1" customFormat="1" ht="12" spans="1:18">
       <c r="A127" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>594</v>
@@ -55768,7 +55759,7 @@
     </row>
     <row r="128" s="1" customFormat="1" ht="12" spans="1:18">
       <c r="A128" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>595</v>
@@ -55820,10 +55811,10 @@
     </row>
     <row r="130" spans="5:12">
       <c r="E130" s="14">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F130" s="14">
-        <v>0.166666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="G130" s="15">
         <v>1208509996</v>
@@ -55841,15 +55832,15 @@
         <v>598</v>
       </c>
       <c r="L130" s="15" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="5:12">
       <c r="E131" s="14">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F131" s="14">
-        <v>0.166666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="G131" s="15">
         <v>1153436458</v>
@@ -55872,10 +55863,10 @@
     </row>
     <row r="132" spans="5:12">
       <c r="E132" s="14">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F132" s="14">
-        <v>0.166666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="G132" s="15">
         <v>1116231956</v>
@@ -55898,10 +55889,10 @@
     </row>
     <row r="133" spans="5:12">
       <c r="E133" s="14">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F133" s="14">
-        <v>0.166666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="G133" s="15">
         <v>1094190472</v>
@@ -55924,13 +55915,13 @@
     </row>
     <row r="134" spans="5:12">
       <c r="E134" s="14">
-        <v>0.791666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="F134" s="14">
-        <v>0.166666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="G134" s="15">
-        <v>1026876551</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>596</v>
@@ -55942,35 +55933,9 @@
         <v>606</v>
       </c>
       <c r="K134" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L134" s="15" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="135" spans="5:12">
-      <c r="E135" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F135" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G135" s="15">
-        <v>0</v>
-      </c>
-      <c r="H135" t="s">
-        <v>596</v>
-      </c>
-      <c r="I135" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="J135" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="K135" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="L135" s="15" t="s">
         <v>594</v>
       </c>
     </row>
@@ -56220,8 +56185,8 @@
     <mergeCell ref="Q120:R120"/>
     <mergeCell ref="O121:P121"/>
     <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="O123:P123"/>
-    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="Q122:R122"/>
     <mergeCell ref="O124:P124"/>
     <mergeCell ref="Q124:R124"/>
     <mergeCell ref="O125:P125"/>
@@ -56238,7 +56203,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="O1:P2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A121 A175:A1048576 A123:A128">
+  <conditionalFormatting sqref="A1:A122 A124:A128 A175:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
